--- a/Hanbo/7kUI_201305/三种任务字段比较.xlsx
+++ b/Hanbo/7kUI_201305/三种任务字段比较.xlsx
@@ -235,9 +235,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -539,213 +545,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="39.125" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="39.125" customWidth="1"/>
+    <col min="5" max="5" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
         <v>41</v>
       </c>
     </row>
